--- a/EXTC/Format/付帯設備利用明細書_スタジオ.xlsx
+++ b/EXTC/Format/付帯設備利用明細書_スタジオ.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0707\Desktop\EXT_K0605\EXT_K0605\format\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="120" windowWidth="24240" windowHeight="12060" tabRatio="826"/>
+    <workbookView xWindow="2976" yWindow="120" windowWidth="24240" windowHeight="12060" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="スタジオ" sheetId="51" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スタジオ!$A$1:$J$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スタジオ!$A$1:$J$64</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -185,10 +190,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>基本会場利用料</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -201,11 +202,14 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -1523,6 +1527,12 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1700,12 +1710,6 @@
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1736,13 +1740,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>287655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1753,8 +1757,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19050" y="13754100"/>
-          <a:ext cx="2219325" cy="1228725"/>
+          <a:off x="19050" y="13874115"/>
+          <a:ext cx="2181225" cy="1230630"/>
           <a:chOff x="38100" y="13115925"/>
           <a:chExt cx="2171700" cy="1076325"/>
         </a:xfrm>
@@ -2020,468 +2024,526 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>790403</xdr:colOff>
+      <xdr:colOff>782783</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>300013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485251</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5766263" y="1542073"/>
+          <a:ext cx="2857148" cy="566762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EX STUDIO ROPPONGI </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13905</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>215874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139132</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>510196</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5782245" y="1762734"/>
+          <a:ext cx="1694947" cy="294322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>TEL:03-6406-2118</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3689</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37769</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69457</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772029" y="1285049"/>
+          <a:ext cx="3204000" cy="331268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>〒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>106-0031 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>東京都港区西麻布</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1-2-9 EX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>タワー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>階</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>782937</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>807075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
+      <xdr:colOff>799455</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>274275</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324428" y="857250"/>
-          <a:ext cx="3531397" cy="1257300"/>
-          <a:chOff x="6324428" y="857250"/>
-          <a:chExt cx="3531397" cy="1257300"/>
+          <a:off x="5766417" y="851535"/>
+          <a:ext cx="3171198" cy="360000"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6324428" y="1547788"/>
-            <a:ext cx="3181521" cy="566762"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
           <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>EX STUDIO ROPPONGI </a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6342224" y="1768449"/>
-            <a:ext cx="1887375" cy="294322"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>TEL:03-6406-2118</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6330849" y="1290764"/>
-            <a:ext cx="3440544" cy="331268"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+            </a:rPr>
+            <a:t>株式会社テレビ朝日 総合ビジネス局</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>782937</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>799455</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5766417" y="1061085"/>
+          <a:ext cx="3171198" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
           <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>〒</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>106-0031 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>東京都港区西麻布</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>1-2-9 EX</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>タワー</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>16</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>階</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6324600" y="857250"/>
-            <a:ext cx="3531225" cy="360000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>株式会社テレビ朝日 総合ビジネス局</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            </a:rPr>
+            <a:t>イベント事業</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6324600" y="1066800"/>
-            <a:ext cx="3531225" cy="360000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>イベント事業センター</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>部</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2523,7 +2585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2558,7 +2620,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2774,68 +2836,68 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="10" width="11.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.44140625" style="4" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="9" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="169" t="s">
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+    </row>
+    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-    </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="35"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="50"/>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="170"/>
-      <c r="C4" s="170"/>
+    <row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
+    <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
       <c r="G5" s="51"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="172" t="s">
+    <row r="6" spans="1:10" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="172"/>
+      <c r="B6" s="174"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2845,15 +2907,15 @@
       <c r="I6" s="6"/>
       <c r="J6" s="52"/>
     </row>
-    <row r="7" spans="1:10" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="147" t="s">
+    <row r="7" spans="1:10" ht="21.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="149" t="s">
+      <c r="B7" s="150"/>
+      <c r="C7" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="150"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="54" t="s">
         <v>2</v>
       </c>
@@ -2866,17 +2928,17 @@
       <c r="H7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="149" t="s">
+      <c r="I7" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="151"/>
-    </row>
-    <row r="8" spans="1:10" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="173" t="s">
+      <c r="J7" s="153"/>
+    </row>
+    <row r="8" spans="1:10" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="113" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="174" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="56"/>
@@ -2887,10 +2949,10 @@
         <f>F8+G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
+    </row>
+    <row r="9" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="57"/>
       <c r="B9" s="107"/>
       <c r="C9" s="58"/>
@@ -2902,10 +2964,10 @@
         <f>F9+G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="157"/>
-    </row>
-    <row r="10" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
+    </row>
+    <row r="10" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="57"/>
       <c r="B10" s="107"/>
       <c r="C10" s="58"/>
@@ -2917,10 +2979,10 @@
         <f t="shared" ref="H10:H46" si="0">F10+G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="156"/>
-      <c r="J10" s="157"/>
-    </row>
-    <row r="11" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
+    </row>
+    <row r="11" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="57"/>
       <c r="B11" s="108"/>
       <c r="C11" s="60"/>
@@ -2932,10 +2994,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="157"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="57"/>
       <c r="B12" s="108"/>
       <c r="C12" s="60"/>
@@ -2947,10 +3009,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="156"/>
-      <c r="J12" s="157"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
+    </row>
+    <row r="13" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="57"/>
       <c r="B13" s="108"/>
       <c r="C13" s="60"/>
@@ -2962,10 +3024,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
-    </row>
-    <row r="14" spans="1:10" s="42" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
+    </row>
+    <row r="14" spans="1:10" s="42" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="57"/>
       <c r="B14" s="108"/>
       <c r="C14" s="60"/>
@@ -2977,10 +3039,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="166"/>
-      <c r="J14" s="167"/>
-    </row>
-    <row r="15" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I14" s="168"/>
+      <c r="J14" s="169"/>
+    </row>
+    <row r="15" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="57"/>
       <c r="B15" s="108"/>
       <c r="C15" s="60"/>
@@ -2992,10 +3054,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="156"/>
-      <c r="J15" s="157"/>
-    </row>
-    <row r="16" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I15" s="158"/>
+      <c r="J15" s="159"/>
+    </row>
+    <row r="16" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="57"/>
       <c r="B16" s="108"/>
       <c r="C16" s="60"/>
@@ -3007,10 +3069,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="156"/>
-      <c r="J16" s="157"/>
-    </row>
-    <row r="17" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I16" s="158"/>
+      <c r="J16" s="159"/>
+    </row>
+    <row r="17" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="57"/>
       <c r="B17" s="108"/>
       <c r="C17" s="60"/>
@@ -3022,10 +3084,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="156"/>
-      <c r="J17" s="157"/>
-    </row>
-    <row r="18" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="158"/>
+      <c r="J17" s="159"/>
+    </row>
+    <row r="18" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="57"/>
       <c r="B18" s="108"/>
       <c r="C18" s="60"/>
@@ -3037,10 +3099,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="156"/>
-      <c r="J18" s="157"/>
-    </row>
-    <row r="19" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I18" s="158"/>
+      <c r="J18" s="159"/>
+    </row>
+    <row r="19" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="57"/>
       <c r="B19" s="109"/>
       <c r="C19" s="60"/>
@@ -3052,10 +3114,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
-    </row>
-    <row r="20" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="164"/>
+      <c r="J19" s="165"/>
+    </row>
+    <row r="20" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="57"/>
       <c r="B20" s="107"/>
       <c r="C20" s="58"/>
@@ -3067,10 +3129,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="154"/>
-      <c r="J20" s="155"/>
-    </row>
-    <row r="21" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I20" s="156"/>
+      <c r="J20" s="157"/>
+    </row>
+    <row r="21" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="57"/>
       <c r="B21" s="110"/>
       <c r="C21" s="58"/>
@@ -3082,10 +3144,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="156"/>
-      <c r="J21" s="157"/>
-    </row>
-    <row r="22" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I21" s="158"/>
+      <c r="J21" s="159"/>
+    </row>
+    <row r="22" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="57"/>
       <c r="B22" s="110"/>
       <c r="C22" s="58"/>
@@ -3097,10 +3159,10 @@
         <f t="shared" ref="H22:H31" si="1">F22+G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
-    </row>
-    <row r="23" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="158"/>
+      <c r="J22" s="159"/>
+    </row>
+    <row r="23" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="57"/>
       <c r="B23" s="110"/>
       <c r="C23" s="58"/>
@@ -3112,10 +3174,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="156"/>
-      <c r="J23" s="157"/>
-    </row>
-    <row r="24" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
+    </row>
+    <row r="24" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="57"/>
       <c r="B24" s="110"/>
       <c r="C24" s="58"/>
@@ -3127,10 +3189,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="156"/>
-      <c r="J24" s="157"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I24" s="158"/>
+      <c r="J24" s="159"/>
+    </row>
+    <row r="25" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="57"/>
       <c r="B25" s="110"/>
       <c r="C25" s="58"/>
@@ -3142,10 +3204,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="156"/>
-      <c r="J25" s="157"/>
-    </row>
-    <row r="26" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="158"/>
+      <c r="J25" s="159"/>
+    </row>
+    <row r="26" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="57"/>
       <c r="B26" s="110"/>
       <c r="C26" s="58"/>
@@ -3157,10 +3219,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="156"/>
-      <c r="J26" s="157"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="158"/>
+      <c r="J26" s="159"/>
+    </row>
+    <row r="27" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="57"/>
       <c r="B27" s="110"/>
       <c r="C27" s="58"/>
@@ -3172,10 +3234,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="156"/>
-      <c r="J27" s="157"/>
-    </row>
-    <row r="28" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I27" s="158"/>
+      <c r="J27" s="159"/>
+    </row>
+    <row r="28" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="57"/>
       <c r="B28" s="110"/>
       <c r="C28" s="58"/>
@@ -3187,10 +3249,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="156"/>
-      <c r="J28" s="157"/>
-    </row>
-    <row r="29" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I28" s="158"/>
+      <c r="J28" s="159"/>
+    </row>
+    <row r="29" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="57"/>
       <c r="B29" s="110"/>
       <c r="C29" s="58"/>
@@ -3202,10 +3264,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="156"/>
-      <c r="J29" s="157"/>
-    </row>
-    <row r="30" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I29" s="158"/>
+      <c r="J29" s="159"/>
+    </row>
+    <row r="30" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="57"/>
       <c r="B30" s="110"/>
       <c r="C30" s="58"/>
@@ -3217,10 +3279,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
-    </row>
-    <row r="31" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I30" s="158"/>
+      <c r="J30" s="159"/>
+    </row>
+    <row r="31" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="57"/>
       <c r="B31" s="110"/>
       <c r="C31" s="58"/>
@@ -3232,10 +3294,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
-    </row>
-    <row r="32" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I31" s="158"/>
+      <c r="J31" s="159"/>
+    </row>
+    <row r="32" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="57"/>
       <c r="B32" s="110"/>
       <c r="C32" s="58"/>
@@ -3247,10 +3309,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="156"/>
-      <c r="J32" s="157"/>
-    </row>
-    <row r="33" spans="1:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I32" s="158"/>
+      <c r="J32" s="159"/>
+    </row>
+    <row r="33" spans="1:10" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="57"/>
       <c r="B33" s="110"/>
       <c r="C33" s="58"/>
@@ -3262,10 +3324,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="156"/>
-      <c r="J33" s="157"/>
-    </row>
-    <row r="34" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I33" s="158"/>
+      <c r="J33" s="159"/>
+    </row>
+    <row r="34" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="57"/>
       <c r="B34" s="110"/>
       <c r="C34" s="58"/>
@@ -3277,10 +3339,10 @@
         <f t="shared" ref="H34:H37" si="2">F34+G34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="156"/>
-      <c r="J34" s="157"/>
-    </row>
-    <row r="35" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I34" s="158"/>
+      <c r="J34" s="159"/>
+    </row>
+    <row r="35" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="57"/>
       <c r="B35" s="110"/>
       <c r="C35" s="58"/>
@@ -3292,10 +3354,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="156"/>
-      <c r="J35" s="157"/>
-    </row>
-    <row r="36" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="158"/>
+      <c r="J35" s="159"/>
+    </row>
+    <row r="36" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="57"/>
       <c r="B36" s="110"/>
       <c r="C36" s="58"/>
@@ -3307,10 +3369,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="156"/>
-      <c r="J36" s="157"/>
-    </row>
-    <row r="37" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="158"/>
+      <c r="J36" s="159"/>
+    </row>
+    <row r="37" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="57"/>
       <c r="B37" s="110"/>
       <c r="C37" s="58"/>
@@ -3322,10 +3384,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I37" s="156"/>
-      <c r="J37" s="157"/>
-    </row>
-    <row r="38" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I37" s="158"/>
+      <c r="J37" s="159"/>
+    </row>
+    <row r="38" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="57"/>
       <c r="B38" s="111"/>
       <c r="C38" s="58"/>
@@ -3337,10 +3399,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="156"/>
-      <c r="J38" s="157"/>
-    </row>
-    <row r="39" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I38" s="158"/>
+      <c r="J38" s="159"/>
+    </row>
+    <row r="39" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="57"/>
       <c r="B39" s="107"/>
       <c r="C39" s="58"/>
@@ -3352,10 +3414,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="158"/>
-      <c r="J39" s="159"/>
-    </row>
-    <row r="40" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I39" s="160"/>
+      <c r="J39" s="161"/>
+    </row>
+    <row r="40" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="57"/>
       <c r="B40" s="107"/>
       <c r="C40" s="58"/>
@@ -3367,10 +3429,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="160"/>
-      <c r="J40" s="161"/>
-    </row>
-    <row r="41" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I40" s="162"/>
+      <c r="J40" s="163"/>
+    </row>
+    <row r="41" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="57"/>
       <c r="B41" s="107"/>
       <c r="C41" s="58"/>
@@ -3382,10 +3444,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="160"/>
-      <c r="J41" s="161"/>
-    </row>
-    <row r="42" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I41" s="162"/>
+      <c r="J41" s="163"/>
+    </row>
+    <row r="42" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="57"/>
       <c r="B42" s="107"/>
       <c r="C42" s="58"/>
@@ -3397,10 +3459,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="160"/>
-      <c r="J42" s="161"/>
-    </row>
-    <row r="43" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I42" s="162"/>
+      <c r="J42" s="163"/>
+    </row>
+    <row r="43" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="57"/>
       <c r="B43" s="107"/>
       <c r="C43" s="58"/>
@@ -3412,10 +3474,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="160"/>
-      <c r="J43" s="161"/>
-    </row>
-    <row r="44" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I43" s="162"/>
+      <c r="J43" s="163"/>
+    </row>
+    <row r="44" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="57"/>
       <c r="B44" s="107"/>
       <c r="C44" s="58"/>
@@ -3427,10 +3489,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="152"/>
-      <c r="J44" s="153"/>
-    </row>
-    <row r="45" spans="1:10" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I44" s="154"/>
+      <c r="J44" s="155"/>
+    </row>
+    <row r="45" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="57"/>
       <c r="B45" s="107"/>
       <c r="C45" s="58"/>
@@ -3442,10 +3504,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="152"/>
-      <c r="J45" s="153"/>
-    </row>
-    <row r="46" spans="1:10" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I45" s="154"/>
+      <c r="J45" s="155"/>
+    </row>
+    <row r="46" spans="1:10" ht="21.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="62"/>
       <c r="B46" s="68"/>
       <c r="C46" s="63"/>
@@ -3457,85 +3519,85 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="135"/>
-      <c r="J46" s="136"/>
-    </row>
-    <row r="47" spans="1:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="137"/>
+      <c r="J46" s="138"/>
+    </row>
+    <row r="47" spans="1:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="65"/>
       <c r="B47" s="66"/>
-      <c r="C47" s="137" t="s">
+      <c r="C47" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="137"/>
+      <c r="D47" s="139"/>
       <c r="E47" s="102"/>
-      <c r="F47" s="138">
+      <c r="F47" s="140">
         <f>SUM(H8:H46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="141"/>
       <c r="I47" s="92"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="67"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="140" t="s">
+      <c r="C48" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="140"/>
+      <c r="D48" s="142"/>
       <c r="E48" s="69">
         <v>0.08</v>
       </c>
-      <c r="F48" s="141">
+      <c r="F48" s="143">
         <f>F47*$E$48</f>
         <v>0</v>
       </c>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
       <c r="I48" s="93"/>
       <c r="J48" s="16"/>
     </row>
-    <row r="49" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="70"/>
       <c r="B49" s="71"/>
-      <c r="C49" s="122" t="s">
+      <c r="C49" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="122"/>
+      <c r="D49" s="124"/>
       <c r="E49" s="103"/>
-      <c r="F49" s="143">
+      <c r="F49" s="145">
         <f>F47+F48</f>
         <v>0</v>
       </c>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146"/>
       <c r="I49" s="94"/>
       <c r="J49" s="18"/>
     </row>
-    <row r="50" spans="1:10" s="21" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="145" t="s">
+    <row r="50" spans="1:10" s="21" customFormat="1" ht="45.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="147"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="146"/>
-    </row>
-    <row r="51" spans="1:10" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="147" t="s">
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+    </row>
+    <row r="51" spans="1:10" ht="21.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A51" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="148"/>
-      <c r="C51" s="149" t="s">
+      <c r="B51" s="150"/>
+      <c r="C51" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="150"/>
+      <c r="D51" s="152"/>
       <c r="E51" s="54" t="s">
         <v>2</v>
       </c>
@@ -3548,12 +3610,12 @@
       <c r="H51" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="149" t="s">
+      <c r="I51" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="J51" s="151"/>
-    </row>
-    <row r="52" spans="1:10" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="J51" s="153"/>
+    </row>
+    <row r="52" spans="1:10" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="24"/>
@@ -3565,10 +3627,10 @@
         <f>F52+G52</f>
         <v>0</v>
       </c>
-      <c r="I52" s="133"/>
-      <c r="J52" s="134"/>
-    </row>
-    <row r="53" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I52" s="135"/>
+      <c r="J52" s="136"/>
+    </row>
+    <row r="53" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="48"/>
       <c r="B53" s="11"/>
       <c r="C53" s="26"/>
@@ -3580,10 +3642,10 @@
         <f>F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="116"/>
-      <c r="J53" s="117"/>
-    </row>
-    <row r="54" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I53" s="118"/>
+      <c r="J53" s="119"/>
+    </row>
+    <row r="54" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="48"/>
       <c r="B54" s="11"/>
       <c r="C54" s="26"/>
@@ -3595,10 +3657,10 @@
         <f>F54+G54</f>
         <v>0</v>
       </c>
-      <c r="I54" s="116"/>
-      <c r="J54" s="117"/>
-    </row>
-    <row r="55" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I54" s="118"/>
+      <c r="J54" s="119"/>
+    </row>
+    <row r="55" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="48"/>
       <c r="B55" s="29"/>
       <c r="C55" s="49"/>
@@ -3610,10 +3672,10 @@
         <f t="shared" ref="H55:H56" si="3">F55+G55</f>
         <v>0</v>
       </c>
-      <c r="I55" s="118"/>
-      <c r="J55" s="119"/>
-    </row>
-    <row r="56" spans="1:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I55" s="120"/>
+      <c r="J55" s="121"/>
+    </row>
+    <row r="56" spans="1:10" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="36"/>
       <c r="B56" s="37"/>
       <c r="C56" s="38"/>
@@ -3625,29 +3687,29 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I56" s="120"/>
-      <c r="J56" s="121"/>
-    </row>
-    <row r="57" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I56" s="122"/>
+      <c r="J56" s="123"/>
+    </row>
+    <row r="57" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A57" s="70"/>
       <c r="B57" s="71"/>
-      <c r="C57" s="122" t="s">
+      <c r="C57" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="122"/>
+      <c r="D57" s="124"/>
       <c r="E57" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="123">
+      <c r="F57" s="125">
         <f>SUM(H52:H56)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
+      <c r="G57" s="126"/>
+      <c r="H57" s="126"/>
       <c r="I57" s="101"/>
       <c r="J57" s="28"/>
     </row>
-    <row r="58" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="30"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -3659,59 +3721,59 @@
       <c r="I58" s="31"/>
       <c r="J58" s="17"/>
     </row>
-    <row r="59" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="32"/>
       <c r="B59" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="125" t="s">
+      <c r="C59" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="125"/>
+      <c r="D59" s="127"/>
       <c r="E59" s="104"/>
-      <c r="F59" s="126">
+      <c r="F59" s="128">
         <f>F49+F57</f>
         <v>0</v>
       </c>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="127" t="s">
+      <c r="G59" s="128"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="J59" s="128"/>
-    </row>
-    <row r="60" spans="1:10" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="129"/>
-      <c r="B60" s="129"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="130"/>
+      <c r="J59" s="130"/>
+    </row>
+    <row r="60" spans="1:10" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="131"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="132"/>
       <c r="F60" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="131">
+      <c r="G60" s="133">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="132"/>
-    </row>
-    <row r="61" spans="1:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="112"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="112"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="113"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="134"/>
+    </row>
+    <row r="61" spans="1:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A61" s="114"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="115"/>
       <c r="F61" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="115"/>
-    </row>
-    <row r="62" spans="1:10" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="117"/>
+    </row>
+    <row r="62" spans="1:10" ht="19.8" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="33"/>
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>

--- a/EXTC/Format/付帯設備利用明細書_スタジオ.xlsx
+++ b/EXTC/Format/付帯設備利用明細書_スタジオ.xlsx
@@ -1,28 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0707\Desktop\EXT_K0605\EXT_K0605\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奥田\source\repos\EXT\EXTC\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9132B65-334A-44EB-B9A8-25B732F85D19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2976" yWindow="120" windowWidth="24240" windowHeight="12060" tabRatio="826"/>
+    <workbookView xWindow="9210" yWindow="-14250" windowWidth="23040" windowHeight="12270" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スタジオ" sheetId="51" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スタジオ!$A$1:$J$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スタジオ!$A$1:$L$65</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -205,18 +214,32 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <t>税率</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイリツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>税額</t>
+    <rPh sb="0" eb="2">
+      <t>ゼイガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +541,34 @@
     <font>
       <sz val="10"/>
       <color theme="3" tint="-0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0F253F"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0F253F"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF17375D"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -537,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1184,8 +1235,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="double">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1207,8 +1291,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,9 +1337,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1392,15 +1477,9 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1470,9 +1549,6 @@
     <xf numFmtId="38" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="20" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1533,125 +1609,60 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1663,12 +1674,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="33" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1679,46 +1684,208 @@
     <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="45" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="44" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="43" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="43" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="44" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="Normal" xfId="7" xr:uid="{0D5EF21D-DD53-4616-9A21-6292BB94E0EA}"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="桁区切り 2" xfId="3"/>
+    <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="通貨" xfId="2" builtinId="7"/>
-    <cellStyle name="通貨 2" xfId="4"/>
+    <cellStyle name="通貨 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="6"/>
+    <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1739,33 +1906,45 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>287655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 2"/>
+        <xdr:cNvPr id="2" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19050" y="13874115"/>
-          <a:ext cx="2181225" cy="1230630"/>
+          <a:off x="19050" y="14241780"/>
+          <a:ext cx="2219325" cy="1232535"/>
           <a:chOff x="38100" y="13115925"/>
           <a:chExt cx="2171700" cy="1076325"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1802,7 +1981,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1850,7 +2035,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1887,7 +2078,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1935,7 +2132,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -1983,7 +2186,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvPr id="8" name="正方形/長方形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -2029,14 +2238,20 @@
       <xdr:rowOff>300013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>485251</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>561975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2098,14 +2313,20 @@
       <xdr:rowOff>215874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>139132</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>510196</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2169,14 +2390,20 @@
       <xdr:rowOff>42989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>37769</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>69457</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2333,14 +2560,20 @@
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>799455</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>274275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2432,14 +2665,20 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>799455</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>179025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2618,6 +2857,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2653,6 +2909,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2828,1042 +3101,1188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.44140625" style="4" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="41.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11.625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="171" t="s">
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-    </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="35"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="34"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="G5" s="51"/>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="174" t="s">
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="174"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" ht="21.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="149" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="151" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="152"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="116"/>
+      <c r="E7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="151" t="s">
+      <c r="I7" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="153"/>
-    </row>
-    <row r="8" spans="1:10" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="112" t="s">
+      <c r="L7" s="117"/>
+    </row>
+    <row r="8" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="74">
+      <c r="F8" s="71"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="71">
         <f>F8+G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
-    </row>
-    <row r="9" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="57"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="84">
+      <c r="I8" s="168"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="126"/>
+    </row>
+    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="56"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="81">
         <f>F9+G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
-    </row>
-    <row r="10" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="57"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="84">
+      <c r="I9" s="169"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
+    </row>
+    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="56"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="81">
         <f t="shared" ref="H10:H46" si="0">F10+G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
-    </row>
-    <row r="11" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="57"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="84">
+      <c r="I10" s="169"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="56"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-    </row>
-    <row r="12" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="57"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="84">
+      <c r="I11" s="169"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
+    </row>
+    <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="56"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
-    </row>
-    <row r="13" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="57"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="56"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="84">
+      <c r="F13" s="72"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
-    </row>
-    <row r="14" spans="1:10" s="42" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="57"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="84">
+      <c r="I13" s="169"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="112"/>
+    </row>
+    <row r="14" spans="1:12" s="41" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="56"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
-    </row>
-    <row r="15" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="57"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="128"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="56"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="84">
+      <c r="F15" s="72"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
-    </row>
-    <row r="16" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="57"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="112"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="56"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="84">
+      <c r="F16" s="80"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
-    </row>
-    <row r="17" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="57"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+    </row>
+    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="56"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="84">
+      <c r="F17" s="72"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
-    </row>
-    <row r="18" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="57"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="84">
+      <c r="I17" s="169"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="112"/>
+    </row>
+    <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="56"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
-    </row>
-    <row r="19" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="57"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="84">
+      <c r="I18" s="169"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
+    </row>
+    <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="56"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="164"/>
-      <c r="J19" s="165"/>
-    </row>
-    <row r="20" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="57"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="124"/>
+    </row>
+    <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="56"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="84">
+      <c r="F20" s="72"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="156"/>
-      <c r="J20" s="157"/>
-    </row>
-    <row r="21" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="57"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="84">
+      <c r="I20" s="169"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="56"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
-    </row>
-    <row r="22" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="57"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="84">
+      <c r="I21" s="169"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="112"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="56"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="81">
         <f t="shared" ref="H22:H31" si="1">F22+G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
-    </row>
-    <row r="23" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="57"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="84">
+      <c r="I22" s="169"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="112"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="56"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
-    </row>
-    <row r="24" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="57"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="84">
+      <c r="I23" s="169"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="112"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="56"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="158"/>
-      <c r="J24" s="159"/>
-    </row>
-    <row r="25" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="57"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="84">
+      <c r="I24" s="169"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="112"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="56"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
-    </row>
-    <row r="26" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="57"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="84">
+      <c r="I25" s="169"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="112"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="56"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159"/>
-    </row>
-    <row r="27" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="57"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="84">
+      <c r="I26" s="169"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="112"/>
+    </row>
+    <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="56"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="158"/>
-      <c r="J27" s="159"/>
-    </row>
-    <row r="28" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="57"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="84">
+      <c r="I27" s="169"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="112"/>
+    </row>
+    <row r="28" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="56"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="158"/>
-      <c r="J28" s="159"/>
-    </row>
-    <row r="29" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="57"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="84">
+      <c r="I28" s="169"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="112"/>
+    </row>
+    <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="56"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="158"/>
-      <c r="J29" s="159"/>
-    </row>
-    <row r="30" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="57"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="84">
+      <c r="I29" s="169"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="112"/>
+    </row>
+    <row r="30" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="56"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="158"/>
-      <c r="J30" s="159"/>
-    </row>
-    <row r="31" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="57"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="84">
+      <c r="I30" s="169"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="112"/>
+    </row>
+    <row r="31" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="56"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
-    </row>
-    <row r="32" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="57"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="84">
+      <c r="I31" s="169"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="112"/>
+    </row>
+    <row r="32" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="56"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="158"/>
-      <c r="J32" s="159"/>
-    </row>
-    <row r="33" spans="1:10" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="57"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="84">
+      <c r="I32" s="169"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="112"/>
+    </row>
+    <row r="33" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="56"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159"/>
-    </row>
-    <row r="34" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="57"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="84">
+      <c r="I33" s="169"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="112"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="56"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="81">
         <f t="shared" ref="H34:H37" si="2">F34+G34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="158"/>
-      <c r="J34" s="159"/>
-    </row>
-    <row r="35" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="57"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="84">
+      <c r="I34" s="169"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="112"/>
+    </row>
+    <row r="35" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="56"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="158"/>
-      <c r="J35" s="159"/>
-    </row>
-    <row r="36" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="57"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="84">
+      <c r="I35" s="169"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="112"/>
+    </row>
+    <row r="36" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="56"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="158"/>
-      <c r="J36" s="159"/>
-    </row>
-    <row r="37" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="57"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="84">
+      <c r="I36" s="169"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="112"/>
+    </row>
+    <row r="37" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="56"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I37" s="158"/>
-      <c r="J37" s="159"/>
-    </row>
-    <row r="38" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="57"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="84">
+      <c r="I37" s="169"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="112"/>
+    </row>
+    <row r="38" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="56"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159"/>
-    </row>
-    <row r="39" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="57"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="112"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="56"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="84">
+      <c r="F39" s="72"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="160"/>
-      <c r="J39" s="161"/>
-    </row>
-    <row r="40" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="57"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="84">
+      <c r="I39" s="169"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="134"/>
+    </row>
+    <row r="40" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="56"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="162"/>
-      <c r="J40" s="163"/>
-    </row>
-    <row r="41" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="57"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="84">
+      <c r="I40" s="169"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="136"/>
+    </row>
+    <row r="41" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="56"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="162"/>
-      <c r="J41" s="163"/>
-    </row>
-    <row r="42" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="57"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="136"/>
+    </row>
+    <row r="42" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="56"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="84">
+      <c r="F42" s="72"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="162"/>
-      <c r="J42" s="163"/>
-    </row>
-    <row r="43" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="57"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
+      <c r="I42" s="169"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="136"/>
+    </row>
+    <row r="43" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="56"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="84">
+      <c r="F43" s="72"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="162"/>
-      <c r="J43" s="163"/>
-    </row>
-    <row r="44" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="57"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="59"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="136"/>
+    </row>
+    <row r="44" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="56"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="84">
+      <c r="F44" s="72"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="154"/>
-      <c r="J44" s="155"/>
-    </row>
-    <row r="45" spans="1:10" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="57"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="130"/>
+    </row>
+    <row r="45" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="56"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="84">
+      <c r="F45" s="72"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="154"/>
-      <c r="J45" s="155"/>
-    </row>
-    <row r="46" spans="1:10" ht="21.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="62"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="84">
+      <c r="I45" s="169"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="130"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="61"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="137"/>
-      <c r="J46" s="138"/>
-    </row>
-    <row r="47" spans="1:10" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="65"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="139" t="s">
+      <c r="I46" s="170"/>
+      <c r="J46" s="167"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="140"/>
+    </row>
+    <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="64"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="139"/>
-      <c r="E47" s="102"/>
-      <c r="F47" s="140">
+      <c r="D47" s="141"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="142">
         <f>SUM(H8:H46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="141"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="67"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="142" t="s">
+      <c r="G47" s="143"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="173"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="186"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="142"/>
-      <c r="E48" s="69">
+      <c r="D48" s="187"/>
+      <c r="E48" s="188">
         <v>0.08</v>
       </c>
-      <c r="F48" s="143">
+      <c r="F48" s="189">
         <f>F47*$E$48</f>
         <v>0</v>
       </c>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="70"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="124" t="s">
+      <c r="G48" s="190"/>
+      <c r="H48" s="190"/>
+      <c r="I48" s="191"/>
+      <c r="J48" s="192"/>
+      <c r="K48" s="193"/>
+      <c r="L48" s="194"/>
+    </row>
+    <row r="49" spans="1:12" s="171" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="176"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="178"/>
+      <c r="D49" s="178"/>
+      <c r="E49" s="179">
+        <v>0.08</v>
+      </c>
+      <c r="F49" s="180">
+        <v>160</v>
+      </c>
+      <c r="G49" s="181"/>
+      <c r="H49" s="181"/>
+      <c r="I49" s="182"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="184"/>
+      <c r="L49" s="185"/>
+    </row>
+    <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="124"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="145">
+      <c r="D50" s="144"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="145">
         <f>F47+F48</f>
         <v>0</v>
       </c>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="1:10" s="21" customFormat="1" ht="45.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="147" t="s">
+      <c r="G50" s="146"/>
+      <c r="H50" s="146"/>
+      <c r="I50" s="174"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:12" s="20" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="147"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="148"/>
-    </row>
-    <row r="51" spans="1:10" ht="21.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="149" t="s">
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="148"/>
+      <c r="L51" s="148"/>
+    </row>
+    <row r="52" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="150"/>
-      <c r="C51" s="151" t="s">
+      <c r="B52" s="114"/>
+      <c r="C52" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="152"/>
-      <c r="E51" s="54" t="s">
+      <c r="D52" s="116"/>
+      <c r="E52" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F52" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="85" t="s">
+      <c r="G52" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="79" t="s">
+      <c r="H52" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="151" t="s">
+      <c r="I52" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="J51" s="153"/>
-    </row>
-    <row r="52" spans="1:10" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="95">
-        <f>F52+G52</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="135"/>
-      <c r="J52" s="136"/>
-    </row>
-    <row r="53" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="48"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="96">
+      <c r="L52" s="117"/>
+    </row>
+    <row r="53" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="91">
         <f>F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="118"/>
-      <c r="J53" s="119"/>
-    </row>
-    <row r="54" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="48"/>
+      <c r="I53" s="195"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="138"/>
+    </row>
+    <row r="54" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="47"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="26"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="96">
+      <c r="E54" s="26"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="92">
         <f>F54+G54</f>
         <v>0</v>
       </c>
-      <c r="I54" s="118"/>
-      <c r="J54" s="119"/>
-    </row>
-    <row r="55" spans="1:10" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="48"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="49"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="153"/>
+      <c r="L54" s="154"/>
+    </row>
+    <row r="55" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="47"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="96">
-        <f t="shared" ref="H55:H56" si="3">F55+G55</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="120"/>
-      <c r="J55" s="121"/>
-    </row>
-    <row r="56" spans="1:10" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="97">
+      <c r="E55" s="26"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="92">
+        <f>F55+G55</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="196"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="153"/>
+      <c r="L55" s="154"/>
+    </row>
+    <row r="56" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="47"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="92">
+        <f t="shared" ref="H56:H57" si="3">F56+G56</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="196"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="156"/>
+    </row>
+    <row r="57" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="93">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I56" s="122"/>
-      <c r="J56" s="123"/>
-    </row>
-    <row r="57" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A57" s="70"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="124" t="s">
+      <c r="I57" s="197"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="157"/>
+      <c r="L57" s="158"/>
+    </row>
+    <row r="58" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="67"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="124"/>
-      <c r="E57" s="72" t="s">
+      <c r="D58" s="144"/>
+      <c r="E58" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="125">
-        <f>SUM(H52:H56)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="28"/>
-    </row>
-    <row r="58" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="30"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="17"/>
-    </row>
-    <row r="59" spans="1:10" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="32"/>
-      <c r="B59" s="73" t="s">
+      <c r="F58" s="198">
+        <f>SUM(H53:H57)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="199"/>
+      <c r="H58" s="199"/>
+      <c r="I58" s="174"/>
+      <c r="J58" s="175"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="29"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="16"/>
+    </row>
+    <row r="60" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="31"/>
+      <c r="B60" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C59" s="127" t="s">
+      <c r="C60" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="127"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="128">
-        <f>F49+F57</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="128"/>
-      <c r="H59" s="128"/>
-      <c r="I59" s="129" t="s">
+      <c r="D60" s="159"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="160">
+        <f>F50+F58</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="160"/>
+      <c r="H60" s="160"/>
+      <c r="I60" s="200"/>
+      <c r="J60" s="200"/>
+      <c r="K60" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="J59" s="130"/>
-    </row>
-    <row r="60" spans="1:10" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="131"/>
-      <c r="B60" s="131"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="105" t="s">
+      <c r="L60" s="162"/>
+    </row>
+    <row r="61" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="163"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="133">
+      <c r="G61" s="165">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="134"/>
-    </row>
-    <row r="61" spans="1:10" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="114"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="106" t="s">
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="166"/>
+    </row>
+    <row r="62" spans="1:12" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="149"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="150"/>
+      <c r="F62" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="117"/>
-    </row>
-    <row r="62" spans="1:10" ht="19.8" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
+      <c r="G62" s="151"/>
+      <c r="H62" s="151"/>
+      <c r="I62" s="151"/>
+      <c r="J62" s="151"/>
+      <c r="K62" s="151"/>
+      <c r="L62" s="152"/>
+    </row>
+    <row r="63" spans="1:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
+  <mergeCells count="74">
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:L2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/EXTC/Format/付帯設備利用明細書_スタジオ.xlsx
+++ b/EXTC/Format/付帯設備利用明細書_スタジオ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奥田\source\repos\EXT\EXTC\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9132B65-334A-44EB-B9A8-25B732F85D19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2BE72E-BE43-477E-93CE-FD3D74899958}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9210" yWindow="-14250" windowWidth="23040" windowHeight="12270" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6504" yWindow="4488" windowWidth="20772" windowHeight="13344" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スタジオ" sheetId="51" r:id="rId1"/>
@@ -1612,68 +1612,229 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="45" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="47" fillId="0" borderId="44" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="44" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="43" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="43" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="33" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="33" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="33" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="33" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1684,198 +1845,37 @@
     <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="45" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="44" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="43" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="43" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="44" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="7" xr:uid="{0D5EF21D-DD53-4616-9A21-6292BB94E0EA}"/>
@@ -1930,8 +1930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19050" y="14241780"/>
-          <a:ext cx="2219325" cy="1232535"/>
+          <a:off x="19050" y="14178915"/>
+          <a:ext cx="2181225" cy="1230630"/>
           <a:chOff x="38100" y="13115925"/>
           <a:chExt cx="2171700" cy="1076325"/>
         </a:xfrm>
@@ -3108,73 +3108,73 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.25" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.21875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="9" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="4" customWidth="1"/>
     <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="119" t="s">
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+    </row>
+    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="197" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="34"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="49"/>
     </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
+    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
       <c r="G4" s="49"/>
     </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
+    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="122" t="s">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="122"/>
+      <c r="B6" s="200"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -3186,15 +3186,15 @@
       <c r="K6" s="6"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="113" t="s">
+    <row r="7" spans="1:12" ht="21.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="115" t="s">
+      <c r="B7" s="171"/>
+      <c r="C7" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="116"/>
+      <c r="D7" s="173"/>
       <c r="E7" s="53" t="s">
         <v>2</v>
       </c>
@@ -3213,12 +3213,12 @@
       <c r="J7" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="115" t="s">
+      <c r="K7" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="117"/>
-    </row>
-    <row r="8" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="L7" s="174"/>
+    </row>
+    <row r="8" spans="1:12" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="108" t="s">
         <v>25</v>
       </c>
@@ -3234,12 +3234,12 @@
         <f>F8+G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="168"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="71"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
-    </row>
-    <row r="9" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K8" s="192"/>
+      <c r="L8" s="193"/>
+    </row>
+    <row r="9" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="56"/>
       <c r="B9" s="103"/>
       <c r="C9" s="57"/>
@@ -3251,12 +3251,12 @@
         <f>F9+G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="169"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
-    </row>
-    <row r="10" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K9" s="184"/>
+      <c r="L9" s="185"/>
+    </row>
+    <row r="10" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="56"/>
       <c r="B10" s="103"/>
       <c r="C10" s="57"/>
@@ -3268,12 +3268,12 @@
         <f t="shared" ref="H10:H46" si="0">F10+G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="169"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
-    </row>
-    <row r="11" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="184"/>
+      <c r="L10" s="185"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="56"/>
       <c r="B11" s="104"/>
       <c r="C11" s="59"/>
@@ -3285,12 +3285,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="169"/>
+      <c r="I11" s="113"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="112"/>
-    </row>
-    <row r="12" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K11" s="184"/>
+      <c r="L11" s="185"/>
+    </row>
+    <row r="12" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="56"/>
       <c r="B12" s="104"/>
       <c r="C12" s="59"/>
@@ -3302,12 +3302,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="169"/>
+      <c r="I12" s="113"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
-    </row>
-    <row r="13" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K12" s="184"/>
+      <c r="L12" s="185"/>
+    </row>
+    <row r="13" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="56"/>
       <c r="B13" s="104"/>
       <c r="C13" s="59"/>
@@ -3319,12 +3319,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="169"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="112"/>
-    </row>
-    <row r="14" spans="1:12" s="41" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K13" s="184"/>
+      <c r="L13" s="185"/>
+    </row>
+    <row r="14" spans="1:12" s="41" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="56"/>
       <c r="B14" s="104"/>
       <c r="C14" s="59"/>
@@ -3336,12 +3336,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="169"/>
+      <c r="I14" s="113"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="128"/>
-    </row>
-    <row r="15" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K14" s="194"/>
+      <c r="L14" s="195"/>
+    </row>
+    <row r="15" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="56"/>
       <c r="B15" s="104"/>
       <c r="C15" s="59"/>
@@ -3353,12 +3353,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="169"/>
+      <c r="I15" s="113"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="112"/>
-    </row>
-    <row r="16" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K15" s="184"/>
+      <c r="L15" s="185"/>
+    </row>
+    <row r="16" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="56"/>
       <c r="B16" s="104"/>
       <c r="C16" s="59"/>
@@ -3370,12 +3370,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="169"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="81"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
-    </row>
-    <row r="17" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K16" s="184"/>
+      <c r="L16" s="185"/>
+    </row>
+    <row r="17" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="56"/>
       <c r="B17" s="104"/>
       <c r="C17" s="59"/>
@@ -3387,12 +3387,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="169"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="81"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="112"/>
-    </row>
-    <row r="18" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K17" s="184"/>
+      <c r="L17" s="185"/>
+    </row>
+    <row r="18" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="56"/>
       <c r="B18" s="104"/>
       <c r="C18" s="59"/>
@@ -3404,12 +3404,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="169"/>
+      <c r="I18" s="113"/>
       <c r="J18" s="81"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
-    </row>
-    <row r="19" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K18" s="184"/>
+      <c r="L18" s="185"/>
+    </row>
+    <row r="19" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="56"/>
       <c r="B19" s="105"/>
       <c r="C19" s="59"/>
@@ -3421,12 +3421,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="169"/>
+      <c r="I19" s="113"/>
       <c r="J19" s="81"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="124"/>
-    </row>
-    <row r="20" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K19" s="190"/>
+      <c r="L19" s="191"/>
+    </row>
+    <row r="20" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="56"/>
       <c r="B20" s="103"/>
       <c r="C20" s="57"/>
@@ -3438,12 +3438,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="169"/>
+      <c r="I20" s="113"/>
       <c r="J20" s="81"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
-    </row>
-    <row r="21" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K20" s="182"/>
+      <c r="L20" s="183"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="56"/>
       <c r="B21" s="106"/>
       <c r="C21" s="57"/>
@@ -3455,12 +3455,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="169"/>
+      <c r="I21" s="113"/>
       <c r="J21" s="81"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="112"/>
-    </row>
-    <row r="22" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K21" s="184"/>
+      <c r="L21" s="185"/>
+    </row>
+    <row r="22" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="56"/>
       <c r="B22" s="106"/>
       <c r="C22" s="57"/>
@@ -3472,12 +3472,12 @@
         <f t="shared" ref="H22:H31" si="1">F22+G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="169"/>
+      <c r="I22" s="113"/>
       <c r="J22" s="81"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="112"/>
-    </row>
-    <row r="23" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K22" s="184"/>
+      <c r="L22" s="185"/>
+    </row>
+    <row r="23" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="56"/>
       <c r="B23" s="106"/>
       <c r="C23" s="57"/>
@@ -3489,12 +3489,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="169"/>
+      <c r="I23" s="113"/>
       <c r="J23" s="81"/>
-      <c r="K23" s="111"/>
-      <c r="L23" s="112"/>
-    </row>
-    <row r="24" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K23" s="184"/>
+      <c r="L23" s="185"/>
+    </row>
+    <row r="24" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="56"/>
       <c r="B24" s="106"/>
       <c r="C24" s="57"/>
@@ -3506,12 +3506,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="169"/>
+      <c r="I24" s="113"/>
       <c r="J24" s="81"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="112"/>
-    </row>
-    <row r="25" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K24" s="184"/>
+      <c r="L24" s="185"/>
+    </row>
+    <row r="25" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="56"/>
       <c r="B25" s="106"/>
       <c r="C25" s="57"/>
@@ -3523,12 +3523,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="169"/>
+      <c r="I25" s="113"/>
       <c r="J25" s="81"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="112"/>
-    </row>
-    <row r="26" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K25" s="184"/>
+      <c r="L25" s="185"/>
+    </row>
+    <row r="26" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="56"/>
       <c r="B26" s="106"/>
       <c r="C26" s="57"/>
@@ -3540,12 +3540,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="169"/>
+      <c r="I26" s="113"/>
       <c r="J26" s="81"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="112"/>
-    </row>
-    <row r="27" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K26" s="184"/>
+      <c r="L26" s="185"/>
+    </row>
+    <row r="27" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="56"/>
       <c r="B27" s="106"/>
       <c r="C27" s="57"/>
@@ -3557,12 +3557,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="169"/>
+      <c r="I27" s="113"/>
       <c r="J27" s="81"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="112"/>
-    </row>
-    <row r="28" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K27" s="184"/>
+      <c r="L27" s="185"/>
+    </row>
+    <row r="28" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="56"/>
       <c r="B28" s="106"/>
       <c r="C28" s="57"/>
@@ -3574,12 +3574,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="169"/>
+      <c r="I28" s="113"/>
       <c r="J28" s="81"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="112"/>
-    </row>
-    <row r="29" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K28" s="184"/>
+      <c r="L28" s="185"/>
+    </row>
+    <row r="29" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="56"/>
       <c r="B29" s="106"/>
       <c r="C29" s="57"/>
@@ -3591,12 +3591,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="169"/>
+      <c r="I29" s="113"/>
       <c r="J29" s="81"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="112"/>
-    </row>
-    <row r="30" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K29" s="184"/>
+      <c r="L29" s="185"/>
+    </row>
+    <row r="30" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="56"/>
       <c r="B30" s="106"/>
       <c r="C30" s="57"/>
@@ -3608,12 +3608,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="169"/>
+      <c r="I30" s="113"/>
       <c r="J30" s="81"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="112"/>
-    </row>
-    <row r="31" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K30" s="184"/>
+      <c r="L30" s="185"/>
+    </row>
+    <row r="31" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="56"/>
       <c r="B31" s="106"/>
       <c r="C31" s="57"/>
@@ -3625,12 +3625,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="169"/>
+      <c r="I31" s="113"/>
       <c r="J31" s="81"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="112"/>
-    </row>
-    <row r="32" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K31" s="184"/>
+      <c r="L31" s="185"/>
+    </row>
+    <row r="32" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="56"/>
       <c r="B32" s="106"/>
       <c r="C32" s="57"/>
@@ -3642,12 +3642,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="169"/>
+      <c r="I32" s="113"/>
       <c r="J32" s="81"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="112"/>
-    </row>
-    <row r="33" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K32" s="184"/>
+      <c r="L32" s="185"/>
+    </row>
+    <row r="33" spans="1:12" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A33" s="56"/>
       <c r="B33" s="106"/>
       <c r="C33" s="57"/>
@@ -3659,12 +3659,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="169"/>
+      <c r="I33" s="113"/>
       <c r="J33" s="81"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="112"/>
-    </row>
-    <row r="34" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K33" s="184"/>
+      <c r="L33" s="185"/>
+    </row>
+    <row r="34" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="56"/>
       <c r="B34" s="106"/>
       <c r="C34" s="57"/>
@@ -3676,12 +3676,12 @@
         <f t="shared" ref="H34:H37" si="2">F34+G34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="169"/>
+      <c r="I34" s="113"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="112"/>
-    </row>
-    <row r="35" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K34" s="184"/>
+      <c r="L34" s="185"/>
+    </row>
+    <row r="35" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="56"/>
       <c r="B35" s="106"/>
       <c r="C35" s="57"/>
@@ -3693,12 +3693,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="169"/>
+      <c r="I35" s="113"/>
       <c r="J35" s="81"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="112"/>
-    </row>
-    <row r="36" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K35" s="184"/>
+      <c r="L35" s="185"/>
+    </row>
+    <row r="36" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="56"/>
       <c r="B36" s="106"/>
       <c r="C36" s="57"/>
@@ -3710,12 +3710,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="169"/>
+      <c r="I36" s="113"/>
       <c r="J36" s="81"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="112"/>
-    </row>
-    <row r="37" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K36" s="184"/>
+      <c r="L36" s="185"/>
+    </row>
+    <row r="37" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="56"/>
       <c r="B37" s="106"/>
       <c r="C37" s="57"/>
@@ -3727,12 +3727,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I37" s="169"/>
+      <c r="I37" s="113"/>
       <c r="J37" s="81"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="112"/>
-    </row>
-    <row r="38" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K37" s="184"/>
+      <c r="L37" s="185"/>
+    </row>
+    <row r="38" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="56"/>
       <c r="B38" s="107"/>
       <c r="C38" s="57"/>
@@ -3744,12 +3744,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="169"/>
+      <c r="I38" s="113"/>
       <c r="J38" s="81"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="112"/>
-    </row>
-    <row r="39" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K38" s="184"/>
+      <c r="L38" s="185"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="56"/>
       <c r="B39" s="103"/>
       <c r="C39" s="57"/>
@@ -3761,12 +3761,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="169"/>
+      <c r="I39" s="113"/>
       <c r="J39" s="81"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
-    </row>
-    <row r="40" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K39" s="186"/>
+      <c r="L39" s="187"/>
+    </row>
+    <row r="40" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="56"/>
       <c r="B40" s="103"/>
       <c r="C40" s="57"/>
@@ -3778,12 +3778,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="169"/>
+      <c r="I40" s="113"/>
       <c r="J40" s="81"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="136"/>
-    </row>
-    <row r="41" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K40" s="188"/>
+      <c r="L40" s="189"/>
+    </row>
+    <row r="41" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="56"/>
       <c r="B41" s="103"/>
       <c r="C41" s="57"/>
@@ -3795,12 +3795,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="169"/>
+      <c r="I41" s="113"/>
       <c r="J41" s="81"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="136"/>
-    </row>
-    <row r="42" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K41" s="188"/>
+      <c r="L41" s="189"/>
+    </row>
+    <row r="42" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="56"/>
       <c r="B42" s="103"/>
       <c r="C42" s="57"/>
@@ -3812,12 +3812,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="169"/>
+      <c r="I42" s="113"/>
       <c r="J42" s="81"/>
-      <c r="K42" s="135"/>
-      <c r="L42" s="136"/>
-    </row>
-    <row r="43" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K42" s="188"/>
+      <c r="L42" s="189"/>
+    </row>
+    <row r="43" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="56"/>
       <c r="B43" s="103"/>
       <c r="C43" s="57"/>
@@ -3829,12 +3829,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="169"/>
+      <c r="I43" s="113"/>
       <c r="J43" s="81"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="136"/>
-    </row>
-    <row r="44" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K43" s="188"/>
+      <c r="L43" s="189"/>
+    </row>
+    <row r="44" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="56"/>
       <c r="B44" s="103"/>
       <c r="C44" s="57"/>
@@ -3846,12 +3846,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="169"/>
+      <c r="I44" s="113"/>
       <c r="J44" s="81"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="130"/>
-    </row>
-    <row r="45" spans="1:12" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K44" s="180"/>
+      <c r="L44" s="181"/>
+    </row>
+    <row r="45" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="56"/>
       <c r="B45" s="103"/>
       <c r="C45" s="57"/>
@@ -3863,12 +3863,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="169"/>
+      <c r="I45" s="113"/>
       <c r="J45" s="81"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="130"/>
-    </row>
-    <row r="46" spans="1:12" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K45" s="180"/>
+      <c r="L45" s="181"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="61"/>
       <c r="B46" s="66"/>
       <c r="C46" s="62"/>
@@ -3880,94 +3880,87 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="170"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="140"/>
-    </row>
-    <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="I46" s="114"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="154"/>
+      <c r="L46" s="155"/>
+    </row>
+    <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="64"/>
       <c r="B47" s="65"/>
-      <c r="C47" s="141" t="s">
+      <c r="C47" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="141"/>
+      <c r="D47" s="156"/>
       <c r="E47" s="98"/>
-      <c r="F47" s="142">
+      <c r="F47" s="160">
         <f>SUM(H8:H46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="143"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="172"/>
-      <c r="J47" s="173"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="163"/>
       <c r="K47" s="89"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="186"/>
+    <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="121"/>
       <c r="B48" s="103"/>
-      <c r="C48" s="187" t="s">
+      <c r="C48" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="187"/>
-      <c r="E48" s="188">
+      <c r="D48" s="157"/>
+      <c r="E48" s="122">
         <v>0.08</v>
       </c>
-      <c r="F48" s="189">
-        <f>F47*$E$48</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="190"/>
-      <c r="H48" s="190"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="192"/>
-      <c r="K48" s="193"/>
-      <c r="L48" s="194"/>
-    </row>
-    <row r="49" spans="1:12" s="171" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="176"/>
-      <c r="B49" s="177"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="178"/>
-      <c r="E49" s="179">
-        <v>0.08</v>
-      </c>
-      <c r="F49" s="180">
-        <v>160</v>
-      </c>
-      <c r="G49" s="181"/>
-      <c r="H49" s="181"/>
-      <c r="I49" s="182"/>
-      <c r="J49" s="183"/>
-      <c r="K49" s="184"/>
-      <c r="L49" s="185"/>
-    </row>
-    <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F48" s="164"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="165"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="167"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="124"/>
+    </row>
+    <row r="49" spans="1:12" s="115" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="116"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="175"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="179"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="120"/>
+    </row>
+    <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="67"/>
       <c r="B50" s="68"/>
-      <c r="C50" s="144" t="s">
+      <c r="C50" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="144"/>
+      <c r="D50" s="146"/>
       <c r="E50" s="99"/>
-      <c r="F50" s="145">
+      <c r="F50" s="168">
         <f>F47+F48</f>
         <v>0</v>
       </c>
-      <c r="G50" s="146"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="175"/>
+      <c r="G50" s="169"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="133"/>
       <c r="K50" s="90"/>
       <c r="L50" s="17"/>
     </row>
-    <row r="51" spans="1:12" s="20" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="147" t="s">
+    <row r="51" spans="1:12" s="20" customFormat="1" ht="45.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="147"/>
-      <c r="C51" s="147"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="158"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="19"/>
@@ -3975,18 +3968,18 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="148"/>
-      <c r="L51" s="148"/>
-    </row>
-    <row r="52" spans="1:12" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="113" t="s">
+      <c r="K51" s="159"/>
+      <c r="L51" s="159"/>
+    </row>
+    <row r="52" spans="1:12" ht="21.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A52" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="114"/>
-      <c r="C52" s="115" t="s">
+      <c r="B52" s="171"/>
+      <c r="C52" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="116"/>
+      <c r="D52" s="173"/>
       <c r="E52" s="53" t="s">
         <v>2</v>
       </c>
@@ -4005,12 +3998,12 @@
       <c r="J52" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="115" t="s">
+      <c r="K52" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="117"/>
-    </row>
-    <row r="53" spans="1:12" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="L52" s="174"/>
+    </row>
+    <row r="53" spans="1:12" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
@@ -4022,12 +4015,12 @@
         <f>F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="195"/>
+      <c r="I53" s="125"/>
       <c r="J53" s="91"/>
-      <c r="K53" s="137"/>
-      <c r="L53" s="138"/>
-    </row>
-    <row r="54" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K53" s="128"/>
+      <c r="L53" s="129"/>
+    </row>
+    <row r="54" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="47"/>
       <c r="B54" s="11"/>
       <c r="C54" s="25"/>
@@ -4039,12 +4032,12 @@
         <f>F54+G54</f>
         <v>0</v>
       </c>
-      <c r="I54" s="196"/>
+      <c r="I54" s="126"/>
       <c r="J54" s="92"/>
-      <c r="K54" s="153"/>
-      <c r="L54" s="154"/>
-    </row>
-    <row r="55" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K54" s="140"/>
+      <c r="L54" s="141"/>
+    </row>
+    <row r="55" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="47"/>
       <c r="B55" s="11"/>
       <c r="C55" s="25"/>
@@ -4056,12 +4049,12 @@
         <f>F55+G55</f>
         <v>0</v>
       </c>
-      <c r="I55" s="196"/>
+      <c r="I55" s="126"/>
       <c r="J55" s="92"/>
-      <c r="K55" s="153"/>
-      <c r="L55" s="154"/>
-    </row>
-    <row r="56" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K55" s="140"/>
+      <c r="L55" s="141"/>
+    </row>
+    <row r="56" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="47"/>
       <c r="B56" s="28"/>
       <c r="C56" s="48"/>
@@ -4073,12 +4066,12 @@
         <f t="shared" ref="H56:H57" si="3">F56+G56</f>
         <v>0</v>
       </c>
-      <c r="I56" s="196"/>
+      <c r="I56" s="126"/>
       <c r="J56" s="92"/>
-      <c r="K56" s="155"/>
-      <c r="L56" s="156"/>
-    </row>
-    <row r="57" spans="1:12" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K56" s="142"/>
+      <c r="L56" s="143"/>
+    </row>
+    <row r="57" spans="1:12" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A57" s="35"/>
       <c r="B57" s="36"/>
       <c r="C57" s="37"/>
@@ -4090,33 +4083,33 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I57" s="197"/>
+      <c r="I57" s="127"/>
       <c r="J57" s="93"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="158"/>
-    </row>
-    <row r="58" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K57" s="144"/>
+      <c r="L57" s="145"/>
+    </row>
+    <row r="58" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A58" s="67"/>
       <c r="B58" s="68"/>
-      <c r="C58" s="144" t="s">
+      <c r="C58" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="144"/>
+      <c r="D58" s="146"/>
       <c r="E58" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="198">
+      <c r="F58" s="130">
         <f>SUM(H53:H57)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="199"/>
-      <c r="H58" s="199"/>
-      <c r="I58" s="174"/>
-      <c r="J58" s="175"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="133"/>
       <c r="K58" s="97"/>
       <c r="L58" s="27"/>
     </row>
-    <row r="59" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="29"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -4130,65 +4123,65 @@
       <c r="K59" s="30"/>
       <c r="L59" s="16"/>
     </row>
-    <row r="60" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="31"/>
       <c r="B60" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="159" t="s">
+      <c r="C60" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="159"/>
+      <c r="D60" s="147"/>
       <c r="E60" s="100"/>
-      <c r="F60" s="160">
+      <c r="F60" s="134">
         <f>F50+F58</f>
         <v>0</v>
       </c>
-      <c r="G60" s="160"/>
-      <c r="H60" s="160"/>
-      <c r="I60" s="200"/>
-      <c r="J60" s="200"/>
-      <c r="K60" s="161" t="s">
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="135"/>
+      <c r="J60" s="135"/>
+      <c r="K60" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="L60" s="162"/>
-    </row>
-    <row r="61" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="163"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
-      <c r="E61" s="164"/>
+      <c r="L60" s="149"/>
+    </row>
+    <row r="61" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="150"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
+      <c r="E61" s="151"/>
       <c r="F61" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="165">
+      <c r="G61" s="152">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="165"/>
-      <c r="L61" s="166"/>
-    </row>
-    <row r="62" spans="1:12" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="149"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="150"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="152"/>
+      <c r="K61" s="152"/>
+      <c r="L61" s="153"/>
+    </row>
+    <row r="62" spans="1:12" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A62" s="136"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="136"/>
+      <c r="E62" s="137"/>
       <c r="F62" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="151"/>
-      <c r="H62" s="151"/>
-      <c r="I62" s="151"/>
-      <c r="J62" s="151"/>
-      <c r="K62" s="151"/>
-      <c r="L62" s="152"/>
-    </row>
-    <row r="63" spans="1:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="138"/>
+      <c r="L62" s="139"/>
+    </row>
+    <row r="63" spans="1:12" ht="19.8" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="32"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -4204,34 +4197,36 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:L61"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
@@ -4248,36 +4243,34 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="G61:L61"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/EXTC/Format/付帯設備利用明細書_スタジオ.xlsx
+++ b/EXTC/Format/付帯設備利用明細書_スタジオ.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\奥田\source\repos\EXT\EXTC\Format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0707\Desktop\EXT_K0905\EXT_K0905\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2BE72E-BE43-477E-93CE-FD3D74899958}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6504" yWindow="4488" windowWidth="20772" windowHeight="13344" tabRatio="826" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="4485" windowWidth="20775" windowHeight="13350" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="スタジオ" sheetId="51" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スタジオ!$A$1:$L$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">スタジオ!$A$1:$K$65</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -215,16 +214,22 @@
     <t>1</t>
   </si>
   <si>
-    <t>税率</t>
-    <rPh sb="0" eb="2">
-      <t>ゼイリツ</t>
+    <t>税 率</t>
+    <rPh sb="0" eb="1">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>税額</t>
-    <rPh sb="0" eb="2">
-      <t>ゼイガク</t>
+    <t>税  額</t>
+    <rPh sb="0" eb="1">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -232,14 +237,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,22 +383,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
       <color theme="3" tint="-0.249977111117893"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -682,19 +671,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF0070C0"/>
       </left>
@@ -749,19 +725,6 @@
         <color rgb="FF0070C0"/>
       </left>
       <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="double">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
         <color rgb="FF0070C0"/>
       </right>
       <top style="double">
@@ -876,19 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF0070C0"/>
       </left>
@@ -915,19 +865,6 @@
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
         <color rgb="FF0070C0"/>
       </right>
       <top style="thin">
@@ -1152,17 +1089,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color rgb="FF0070C0"/>
       </left>
@@ -1258,12 +1184,87 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="double">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
       <right style="thick">
         <color rgb="FF0070C0"/>
       </right>
       <top/>
       <bottom style="double">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
         <color rgb="FF0070C0"/>
       </bottom>
       <diagonal/>
@@ -1291,12 +1292,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,556 +1316,498 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="21" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="22" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="35" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="33" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="42" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="38" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="39" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="45" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="47" fillId="0" borderId="44" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="41" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="31" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="18" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="20" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="45" fillId="0" borderId="55" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="24" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="25" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="38" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="36" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="26" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="39" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="40" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="21" fillId="0" borderId="39" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="39" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="41" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="21" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="43" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="44" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="43" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="43" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="45" xfId="7" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="33" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="33" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="18" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="16" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1872,20 +1815,20 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Normal" xfId="7" xr:uid="{0D5EF21D-DD53-4616-9A21-6292BB94E0EA}"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="桁区切り 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="桁区切り 2" xfId="3"/>
     <cellStyle name="通貨" xfId="2" builtinId="7"/>
-    <cellStyle name="通貨 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="通貨 2" xfId="4"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="標準 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2" xfId="5"/>
+    <cellStyle name="標準 3" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1930,8 +1873,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19050" y="14178915"/>
-          <a:ext cx="2181225" cy="1230630"/>
+          <a:off x="19050" y="14241780"/>
+          <a:ext cx="2219325" cy="1232535"/>
           <a:chOff x="38100" y="13115925"/>
           <a:chExt cx="2171700" cy="1076325"/>
         </a:xfrm>
@@ -2232,32 +2175,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>782783</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>300013</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>485251</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5766263" y="1542073"/>
-          <a:ext cx="2857148" cy="566762"/>
+          <a:off x="7610475" y="1557313"/>
+          <a:ext cx="3217193" cy="566762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2307,32 +2244,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13905</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>431272</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>215874</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>139132</xdr:colOff>
+      <xdr:colOff>80249</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>510196</xdr:rowOff>
+      <xdr:rowOff>519721</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5782245" y="1762734"/>
-          <a:ext cx="1694947" cy="294322"/>
+          <a:off x="7717897" y="1771650"/>
+          <a:ext cx="1877827" cy="300646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2384,32 +2315,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3689</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>421056</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>42989</xdr:rowOff>
+      <xdr:rowOff>52514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>37769</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>69457</xdr:rowOff>
+      <xdr:rowOff>78982</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772029" y="1285049"/>
-          <a:ext cx="3204000" cy="331268"/>
+          <a:off x="7707681" y="1300289"/>
+          <a:ext cx="3558330" cy="331268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2554,32 +2479,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>782937</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324004</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>799455</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>274275</xdr:rowOff>
+      <xdr:rowOff>283800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5766417" y="851535"/>
-          <a:ext cx="3171198" cy="360000"/>
+          <a:off x="7610629" y="866775"/>
+          <a:ext cx="3531243" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,32 +2578,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>782937</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324004</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>799455</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>179025</xdr:rowOff>
+      <xdr:rowOff>188550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5766417" y="1061085"/>
-          <a:ext cx="3171198" cy="360000"/>
+          <a:off x="7610629" y="1076325"/>
+          <a:ext cx="3531243" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2857,23 +2770,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2909,23 +2805,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3101,1176 +2980,1067 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9" style="4" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="41.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.75" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="22.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="K1" s="196"/>
-      <c r="L1" s="196"/>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="197" t="s">
+      <c r="K1" s="117"/>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-    </row>
-    <row r="3" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="34"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="31"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="200" t="s">
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="179"/>
+      <c r="C5" s="179"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="200"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="51"/>
-    </row>
-    <row r="7" spans="1:12" ht="21.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="170" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="53" t="s">
+      <c r="D7" s="158"/>
+      <c r="E7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="110" t="s">
+      <c r="J7" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="172" t="s">
+      <c r="K7" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="174"/>
-    </row>
-    <row r="8" spans="1:12" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="108" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="71">
+      <c r="F8" s="67"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="67">
         <f>F8+G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="193"/>
-    </row>
-    <row r="9" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="56"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="81">
+      <c r="I8" s="105"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="121"/>
+    </row>
+    <row r="9" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="52"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="77">
         <f>F9+G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="113"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="185"/>
-    </row>
-    <row r="10" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="56"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="81">
+      <c r="I9" s="106"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="122"/>
+    </row>
+    <row r="10" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="77">
         <f t="shared" ref="H10:H46" si="0">F10+G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="185"/>
-    </row>
-    <row r="11" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="56"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="81">
+      <c r="I10" s="106"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="122"/>
+    </row>
+    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="113"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="185"/>
-    </row>
-    <row r="12" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="56"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="81">
+      <c r="I11" s="106"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="122"/>
+    </row>
+    <row r="12" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="113"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="185"/>
-    </row>
-    <row r="13" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="56"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="122"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="81">
+      <c r="F13" s="68"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="113"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="185"/>
-    </row>
-    <row r="14" spans="1:12" s="41" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="56"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="81">
+      <c r="I13" s="106"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="122"/>
+    </row>
+    <row r="14" spans="1:11" s="38" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="52"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="113"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="195"/>
-    </row>
-    <row r="15" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="56"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="123"/>
+    </row>
+    <row r="15" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="81">
+      <c r="F15" s="68"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="113"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="185"/>
-    </row>
-    <row r="16" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="56"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="122"/>
+    </row>
+    <row r="16" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="81">
+      <c r="F16" s="76"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="113"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="185"/>
-    </row>
-    <row r="17" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="56"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="122"/>
+    </row>
+    <row r="17" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="81">
+      <c r="F17" s="68"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="113"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="185"/>
-    </row>
-    <row r="18" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="56"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="81">
+      <c r="I17" s="106"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="122"/>
+    </row>
+    <row r="18" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="113"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="185"/>
-    </row>
-    <row r="19" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="56"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="81">
+      <c r="I18" s="106"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="122"/>
+    </row>
+    <row r="19" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="191"/>
-    </row>
-    <row r="20" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="56"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="124"/>
+    </row>
+    <row r="20" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="81">
+      <c r="F20" s="68"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="183"/>
-    </row>
-    <row r="21" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="56"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="81">
+      <c r="I20" s="106"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="125"/>
+    </row>
+    <row r="21" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="185"/>
-    </row>
-    <row r="22" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="56"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="81">
+      <c r="I21" s="106"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="122"/>
+    </row>
+    <row r="22" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="77">
         <f t="shared" ref="H22:H31" si="1">F22+G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="185"/>
-    </row>
-    <row r="23" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="56"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="81">
+      <c r="I22" s="106"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="122"/>
+    </row>
+    <row r="23" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="185"/>
-    </row>
-    <row r="24" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="56"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="81">
+      <c r="I23" s="106"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="122"/>
+    </row>
+    <row r="24" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="185"/>
-    </row>
-    <row r="25" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="56"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="81">
+      <c r="I24" s="106"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="122"/>
+    </row>
+    <row r="25" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="113"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="185"/>
-    </row>
-    <row r="26" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="56"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="81">
+      <c r="I25" s="106"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="122"/>
+    </row>
+    <row r="26" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="113"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="185"/>
-    </row>
-    <row r="27" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="56"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="81">
+      <c r="I26" s="106"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="122"/>
+    </row>
+    <row r="27" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="52"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="113"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="185"/>
-    </row>
-    <row r="28" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="56"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="81">
+      <c r="I27" s="106"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="122"/>
+    </row>
+    <row r="28" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="52"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="113"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="185"/>
-    </row>
-    <row r="29" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="56"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="81">
+      <c r="I28" s="106"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="122"/>
+    </row>
+    <row r="29" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="52"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="113"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="185"/>
-    </row>
-    <row r="30" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="56"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="81">
+      <c r="I29" s="106"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="122"/>
+    </row>
+    <row r="30" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="52"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="113"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="185"/>
-    </row>
-    <row r="31" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="56"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="81">
+      <c r="I30" s="106"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="122"/>
+    </row>
+    <row r="31" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="52"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="113"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="185"/>
-    </row>
-    <row r="32" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="56"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="81">
+      <c r="I31" s="106"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="122"/>
+    </row>
+    <row r="32" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="52"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="113"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="185"/>
-    </row>
-    <row r="33" spans="1:12" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="56"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="81">
+      <c r="I32" s="106"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="122"/>
+    </row>
+    <row r="33" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="52"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I33" s="113"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="185"/>
-    </row>
-    <row r="34" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="56"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="81">
+      <c r="I33" s="106"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="122"/>
+    </row>
+    <row r="34" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="52"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="77">
         <f t="shared" ref="H34:H37" si="2">F34+G34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="113"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="184"/>
-      <c r="L34" s="185"/>
-    </row>
-    <row r="35" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="56"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="81">
+      <c r="I34" s="106"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="122"/>
+    </row>
+    <row r="35" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="52"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="185"/>
-    </row>
-    <row r="36" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="56"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="81">
+      <c r="I35" s="106"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="122"/>
+    </row>
+    <row r="36" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="52"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I36" s="113"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="184"/>
-      <c r="L36" s="185"/>
-    </row>
-    <row r="37" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="56"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="81">
+      <c r="I36" s="106"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="122"/>
+    </row>
+    <row r="37" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="52"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="184"/>
-      <c r="L37" s="185"/>
-    </row>
-    <row r="38" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="56"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="81">
+      <c r="I37" s="106"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="122"/>
+    </row>
+    <row r="38" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="52"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="184"/>
-      <c r="L38" s="185"/>
-    </row>
-    <row r="39" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="56"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="58"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="122"/>
+    </row>
+    <row r="39" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="52"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="81">
+      <c r="F39" s="68"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="186"/>
-      <c r="L39" s="187"/>
-    </row>
-    <row r="40" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="56"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="81">
+      <c r="I39" s="106"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="126"/>
+    </row>
+    <row r="40" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="52"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="113"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="188"/>
-      <c r="L40" s="189"/>
-    </row>
-    <row r="41" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="56"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="81">
+      <c r="I40" s="106"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="127"/>
+    </row>
+    <row r="41" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="52"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="113"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="188"/>
-      <c r="L41" s="189"/>
-    </row>
-    <row r="42" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="56"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="127"/>
+    </row>
+    <row r="42" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="52"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="81">
+      <c r="F42" s="68"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="113"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="188"/>
-      <c r="L42" s="189"/>
-    </row>
-    <row r="43" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="56"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="58"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="127"/>
+    </row>
+    <row r="43" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="52"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="81">
+      <c r="F43" s="68"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I43" s="113"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="188"/>
-      <c r="L43" s="189"/>
-    </row>
-    <row r="44" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="56"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="58"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="127"/>
+    </row>
+    <row r="44" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="52"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="81">
+      <c r="F44" s="68"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I44" s="113"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="181"/>
-    </row>
-    <row r="45" spans="1:12" ht="21.9" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="56"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="58"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="128"/>
+    </row>
+    <row r="45" spans="1:11" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="52"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="81">
+      <c r="F45" s="68"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I45" s="113"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="181"/>
-    </row>
-    <row r="46" spans="1:12" ht="21.9" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="61"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="81">
+      <c r="I45" s="106"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="128"/>
+    </row>
+    <row r="46" spans="1:11" ht="21.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="57"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I46" s="114"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="154"/>
-      <c r="L46" s="155"/>
-    </row>
-    <row r="47" spans="1:12" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="156" t="s">
+      <c r="I46" s="107"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="129"/>
+    </row>
+    <row r="47" spans="1:11" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="60"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="156"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="160">
+      <c r="D47" s="164"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="167">
         <f>SUM(H8:H46)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="162"/>
-      <c r="J47" s="163"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="15"/>
-    </row>
-    <row r="48" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="121"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="157" t="s">
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="130"/>
+    </row>
+    <row r="48" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="112"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="157"/>
-      <c r="E48" s="122">
+      <c r="D48" s="165"/>
+      <c r="E48" s="113">
         <v>0.08</v>
       </c>
-      <c r="F48" s="164"/>
-      <c r="G48" s="165"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="166"/>
-      <c r="J48" s="167"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="124"/>
-    </row>
-    <row r="49" spans="1:12" s="115" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="116"/>
-      <c r="B49" s="117"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="175"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="176"/>
-      <c r="G49" s="177"/>
-      <c r="H49" s="177"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="179"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="120"/>
-    </row>
-    <row r="50" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="67"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="146" t="s">
+      <c r="F48" s="171"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="173"/>
+      <c r="J48" s="174"/>
+      <c r="K48" s="131"/>
+    </row>
+    <row r="49" spans="1:11" s="108" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="109"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="162"/>
+      <c r="J49" s="163"/>
+      <c r="K49" s="132"/>
+    </row>
+    <row r="50" spans="1:11" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="63"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="146"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="168">
+      <c r="D50" s="149"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="175">
         <f>F47+F48</f>
         <v>0</v>
       </c>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="17"/>
-    </row>
-    <row r="51" spans="1:12" s="20" customFormat="1" ht="45.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="158" t="s">
+      <c r="G50" s="176"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="133"/>
+    </row>
+    <row r="51" spans="1:11" s="18" customFormat="1" ht="45.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="158"/>
-      <c r="C51" s="158"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="159"/>
-      <c r="L51" s="159"/>
-    </row>
-    <row r="52" spans="1:12" ht="21.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="170" t="s">
+      <c r="B51" s="166"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="119"/>
+    </row>
+    <row r="52" spans="1:11" ht="21.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="171"/>
-      <c r="C52" s="172" t="s">
+      <c r="B52" s="156"/>
+      <c r="C52" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="173"/>
-      <c r="E52" s="53" t="s">
+      <c r="D52" s="158"/>
+      <c r="E52" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="76" t="s">
+      <c r="F52" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="82" t="s">
+      <c r="G52" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="76" t="s">
+      <c r="H52" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="110" t="s">
+      <c r="I52" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="J52" s="110" t="s">
+      <c r="J52" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="172" t="s">
+      <c r="K52" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="174"/>
-    </row>
-    <row r="53" spans="1:12" ht="21.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
+    </row>
+    <row r="53" spans="1:11" ht="21.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="91">
+      <c r="E53" s="22"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="85">
         <f>F53+G53</f>
         <v>0</v>
       </c>
-      <c r="I53" s="125"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="129"/>
-    </row>
-    <row r="54" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="47"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="134"/>
+    </row>
+    <row r="54" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="44"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="25"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="92">
+      <c r="E54" s="24"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="86">
         <f>F54+G54</f>
         <v>0</v>
       </c>
-      <c r="I54" s="126"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="140"/>
-      <c r="L54" s="141"/>
-    </row>
-    <row r="55" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="47"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="135"/>
+    </row>
+    <row r="55" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="44"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="25"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="92">
+      <c r="E55" s="24"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="86">
         <f>F55+G55</f>
         <v>0</v>
       </c>
-      <c r="I55" s="126"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="140"/>
-      <c r="L55" s="141"/>
-    </row>
-    <row r="56" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="47"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="48"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="135"/>
+    </row>
+    <row r="56" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="44"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="92">
+      <c r="E56" s="24"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="86">
         <f t="shared" ref="H56:H57" si="3">F56+G56</f>
         <v>0</v>
       </c>
-      <c r="I56" s="126"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="142"/>
-      <c r="L56" s="143"/>
-    </row>
-    <row r="57" spans="1:12" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="93">
+      <c r="I56" s="115"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="136"/>
+    </row>
+    <row r="57" spans="1:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I57" s="127"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="144"/>
-      <c r="L57" s="145"/>
-    </row>
-    <row r="58" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="67"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="146" t="s">
+      <c r="I57" s="116"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="137"/>
+    </row>
+    <row r="58" spans="1:11" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="63"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="146"/>
-      <c r="E58" s="69" t="s">
+      <c r="D58" s="149"/>
+      <c r="E58" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="130">
+      <c r="F58" s="139">
         <f>SUM(H53:H57)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="27"/>
-    </row>
-    <row r="59" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A59" s="29"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="16"/>
-    </row>
-    <row r="60" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="31"/>
-      <c r="B60" s="70" t="s">
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="142"/>
+      <c r="K58" s="138"/>
+    </row>
+    <row r="59" spans="1:11" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="26"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+    </row>
+    <row r="60" spans="1:11" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="28"/>
+      <c r="B60" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="147" t="s">
+      <c r="C60" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="147"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="134">
+      <c r="D60" s="150"/>
+      <c r="E60" s="93"/>
+      <c r="F60" s="143">
         <f>F50+F58</f>
         <v>0</v>
       </c>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="135"/>
-      <c r="J60" s="135"/>
-      <c r="K60" s="148" t="s">
+      <c r="G60" s="143"/>
+      <c r="H60" s="143"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="L60" s="149"/>
-    </row>
-    <row r="61" spans="1:12" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="150"/>
-      <c r="B61" s="150"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="150"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="101" t="s">
+    </row>
+    <row r="61" spans="1:11" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="151"/>
+      <c r="B61" s="151"/>
+      <c r="C61" s="151"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="152">
+      <c r="G61" s="153">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="H61" s="152"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="152"/>
-      <c r="K61" s="152"/>
-      <c r="L61" s="153"/>
-    </row>
-    <row r="62" spans="1:12" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="136"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="102" t="s">
+      <c r="H61" s="153"/>
+      <c r="I61" s="153"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="154"/>
+    </row>
+    <row r="62" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="145"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="138"/>
-      <c r="H62" s="138"/>
-      <c r="I62" s="138"/>
-      <c r="J62" s="138"/>
-      <c r="K62" s="138"/>
-      <c r="L62" s="139"/>
-    </row>
-    <row r="63" spans="1:12" ht="19.8" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="32"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="148"/>
+    </row>
+    <row r="63" spans="1:11" ht="20.25" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
+  <mergeCells count="25">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:D52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="F49:J49"/>
-    <mergeCell ref="K46:L46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="A51:C51"/>
-    <mergeCell ref="K51:L51"/>
     <mergeCell ref="F47:J47"/>
     <mergeCell ref="F48:J48"/>
     <mergeCell ref="F50:J50"/>
-    <mergeCell ref="K53:L53"/>
     <mergeCell ref="F58:J58"/>
     <mergeCell ref="F60:J60"/>
     <mergeCell ref="A62:E62"/>
-    <mergeCell ref="G62:L62"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="G62:K62"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C60:D60"/>
-    <mergeCell ref="K60:L60"/>
     <mergeCell ref="A61:E61"/>
-    <mergeCell ref="G61:L61"/>
+    <mergeCell ref="G61:K61"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
